--- a/biology/Médecine/Clinical_trial_management_system/Clinical_trial_management_system.xlsx
+++ b/biology/Médecine/Clinical_trial_management_system/Clinical_trial_management_system.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Un Clinical trial management system (CTM) est un logiciel de gestion des essais cliniques utilisé pour l'évaluation d'un placebo, d'un médicament, d'un vaccin ou d'un matériel médical.
@@ -513,7 +525,9 @@
           <t>Fonctionnement</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les laboratoires pharmaceutiques, et les producteurs de matériel médical sous-traitent souvent les essais clinique auprès d'un tiers.
 Ceux-ci utilisent plusieurs moyens en parallèle pour la gestion des informations patients et produits lors d'un essai clinique :   
@@ -554,7 +568,9 @@
           <t>Sigles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Clinical Trial Management System  (CMTS) 
 Interactive Voice Response (IVR) 
@@ -590,7 +606,9 @@
           <t>Liste des logiciels</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Altexsoft 
 Clinical Conductor CTMS
